--- a/Mifos Automation Excels/Client/4708-SUBMITSAVINGS01JAN2015-MODIFYAPP-MINIMUMOPENBAL300&INTPOSTPRD-Quarterly-APPROVEON01JAN2015-ACTIVATEON01JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4708-SUBMITSAVINGS01JAN2015-MODIFYAPP-MINIMUMOPENBAL300&INTPOSTPRD-Quarterly-APPROVEON01JAN2015-ACTIVATEON01JAN2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -208,6 +208,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +615,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -622,18 +623,18 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -725,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
